--- a/config_4.27/act_ty_zp1_config.xlsx
+++ b/config_4.27/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>line</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>gift1</t>
-  </si>
-  <si>
-    <t>prop_mfcjq</t>
   </si>
   <si>
     <t>sta_t|活动开始时间戳</t>
@@ -568,7 +565,7 @@
     <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"5080万金币","100万小游戏币","抽奖券*50",</t>
+    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
   </si>
   <si>
     <t>198元礼包</t>
@@ -577,7 +574,7 @@
     <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"2000万金币","40万小游戏币","抽奖券*30",</t>
+    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
   </si>
   <si>
     <t>98元礼包</t>
@@ -586,7 +583,7 @@
     <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"990万金币","18万小游戏币","抽奖券*15",</t>
+    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
   </si>
   <si>
     <t>48元礼包</t>
@@ -595,7 +592,7 @@
     <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"485万金币","8万小游戏币","抽奖券*8",</t>
+    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
   </si>
   <si>
     <t>20元礼包</t>
@@ -1750,8 +1747,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1792,7 +1789,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="14">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>7</v>
@@ -1802,22 +1799,12 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
+      <c r="A3" s="19"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="19">
-        <v>89</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="2"/>
@@ -1834,7 +1821,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1851,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:6">
@@ -1877,10 +1864,10 @@
         <v>1620662399</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1901,7 +1888,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1916,22 +1903,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1940,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="10"/>
@@ -1956,16 +1943,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="8">
         <v>12026</v>
@@ -1977,16 +1964,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="8">
         <v>12027</v>
@@ -1997,16 +1984,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="8">
         <v>12028</v>
@@ -2017,16 +2004,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="8">
         <v>12029</v>
@@ -2037,16 +2024,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="8">
         <v>12030</v>
@@ -2067,8 +2054,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2086,31 +2073,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2121,16 +2108,16 @@
         <v>10527</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="10">
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="10">
         <v>0</v>
@@ -2148,16 +2135,16 @@
         <v>10528</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -2175,16 +2162,16 @@
         <v>10529</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="10">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -2202,16 +2189,16 @@
         <v>10530</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="10">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -2229,16 +2216,16 @@
         <v>10531</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -2256,16 +2243,16 @@
         <v>10532</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -2312,22 +2299,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -2336,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="8">
@@ -2351,13 +2338,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>12000</v>
@@ -2372,13 +2359,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -2392,13 +2379,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>20000</v>
@@ -2412,13 +2399,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -2432,13 +2419,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>50000</v>
@@ -2477,31 +2464,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2512,16 +2499,16 @@
         <v>10419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2530,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2541,16 +2528,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2559,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2570,16 +2557,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2588,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2599,16 +2586,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2617,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2628,16 +2615,16 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2646,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2657,16 +2644,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2675,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>

--- a/config_4.27/act_ty_zp1_config.xlsx
+++ b/config_4.27/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1887,8 +1887,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2054,8 +2054,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_4.27/act_ty_zp1_config.xlsx
+++ b/config_4.27/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -127,13 +127,25 @@
   </si>
   <si>
     <r>
+      <t>"1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间：</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>"1.</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -142,7 +154,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>活动时间：</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -151,7 +163,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
+      <t>27</t>
     </r>
     <r>
       <rPr>
@@ -160,7 +172,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
+      <t>日</t>
     </r>
     <r>
       <rPr>
@@ -169,7 +181,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>16</t>
+      <t>8:00-5</t>
     </r>
     <r>
       <rPr>
@@ -178,7 +190,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>日</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -187,25 +199,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>8:00-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>22</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -675,12 +669,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,19 +690,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
@@ -720,6 +701,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -728,7 +724,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,16 +769,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,23 +792,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -793,16 +808,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,36 +831,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -853,20 +838,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -875,7 +856,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,187 +883,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,17 +1086,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,16 +1126,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,24 +1175,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1199,165 +1183,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,52 +1352,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1755,56 +1720,55 @@
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="17" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>89</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="19"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="2"/>
@@ -1820,8 +1784,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1834,7 +1798,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1843,18 +1807,18 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:6">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="9">
@@ -1863,7 +1827,7 @@
       <c r="C2" s="9">
         <v>1620662399</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
@@ -1874,7 +1838,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="19"/>
+      <c r="A3" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1887,7 +1851,7 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1926,13 +1890,13 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="8">
         <v>12031</v>
@@ -1942,16 +1906,16 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="8">
@@ -1963,16 +1927,16 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="8">
@@ -1983,16 +1947,16 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="8">
@@ -2003,16 +1967,16 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="8">
@@ -2023,16 +1987,16 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="8">
@@ -2125,7 +2089,7 @@
       <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="4">
@@ -2152,7 +2116,7 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="4">
@@ -2179,7 +2143,7 @@
       <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="4">
@@ -2188,7 +2152,7 @@
       <c r="B5" s="9">
         <v>10530</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="10">
@@ -2206,7 +2170,7 @@
       <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
       <c r="A6" s="4">
@@ -2215,7 +2179,7 @@
       <c r="B6" s="9">
         <v>10531</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="10">
@@ -2233,7 +2197,7 @@
       <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="A7" s="4">
@@ -2242,7 +2206,7 @@
       <c r="B7" s="9">
         <v>10532</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="10">
@@ -2260,7 +2224,7 @@
       <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" s="2" customFormat="1"/>
     <row r="9" s="2" customFormat="1"/>

--- a/config_4.27/act_ty_zp1_config.xlsx
+++ b/config_4.27/act_ty_zp1_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>line</t>
   </si>
@@ -119,6 +119,9 @@
     </r>
   </si>
   <si>
+    <t>cur_path</t>
+  </si>
+  <si>
     <t>xg_desc</t>
   </si>
   <si>
@@ -127,6 +130,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>"1.</t>
     </r>
     <r>
@@ -275,6 +284,9 @@
       </rPr>
       <t>",</t>
     </r>
+  </si>
+  <si>
+    <t>act_ty_zp1_002</t>
   </si>
   <si>
     <t>礼包不限购</t>
@@ -669,12 +681,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,85 +707,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,46 +734,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -839,7 +749,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,6 +774,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
@@ -883,25 +901,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,19 +1051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,127 +1069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,6 +1128,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1142,39 +1193,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1189,10 +1207,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1201,138 +1219,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,6 +1396,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1387,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1749,7 +1768,7 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1765,8 +1784,8 @@
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="17"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
@@ -1782,22 +1801,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="70.5" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:6">
+    <row r="1" ht="28.5" spans="1:7">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1810,14 +1830,17 @@
       <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="58.5" customHeight="1" spans="1:6">
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="58.5" customHeight="1" spans="1:7">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1827,13 +1850,16 @@
       <c r="C2" s="9">
         <v>1620662399</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -1867,22 +1893,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1891,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
@@ -1907,16 +1933,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8">
         <v>12026</v>
@@ -1928,16 +1954,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="8">
         <v>12027</v>
@@ -1948,16 +1974,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="8">
         <v>12028</v>
@@ -1968,16 +1994,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8">
         <v>12029</v>
@@ -1988,16 +2014,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" s="8">
         <v>12030</v>
@@ -2037,31 +2063,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2072,16 +2098,16 @@
         <v>10527</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="10">
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2" s="10">
         <v>0</v>
@@ -2099,16 +2125,16 @@
         <v>10528</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -2126,16 +2152,16 @@
         <v>10529</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="10">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -2153,16 +2179,16 @@
         <v>10530</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="10">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -2180,16 +2206,16 @@
         <v>10531</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -2207,16 +2233,16 @@
         <v>10532</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -2263,22 +2289,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -2287,10 +2313,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="8">
@@ -2302,13 +2328,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>12000</v>
@@ -2323,13 +2349,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -2343,13 +2369,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>20000</v>
@@ -2363,13 +2389,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -2383,13 +2409,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>50000</v>
@@ -2428,31 +2454,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2463,16 +2489,16 @@
         <v>10419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2481,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2492,16 +2518,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2510,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2521,16 +2547,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2539,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2550,16 +2576,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2568,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2579,16 +2605,16 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2597,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2608,16 +2634,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2626,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
